--- a/data/trans_orig/SALUD_MEN_PER-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_MEN_PER-Estudios-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Salud mental percibida en Andalucia</t>
+          <t>Salud mental percibida en Andalucia (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/SALUD_MEN_PER-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_MEN_PER-Estudios-trans_orig.xlsx
@@ -738,12 +738,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3177</t>
+          <t>3189</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13118</t>
+          <t>12809</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6241</t>
+          <t>6599</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15995</t>
+          <t>17043</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -788,12 +788,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>11529</t>
+          <t>11926</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>25507</t>
+          <t>26384</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,2%</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14563</t>
+          <t>14409</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29871</t>
+          <t>30590</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>52924</t>
+          <t>53528</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>74559</t>
+          <t>75721</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>19,0%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>72564</t>
+          <t>71741</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>99185</t>
+          <t>100058</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>15,94%</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>111363</t>
+          <t>110770</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>140129</t>
+          <t>139283</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -979,12 +979,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,57%</t>
+          <t>48,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>61,11%</t>
+          <t>60,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -999,12 +999,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>219717</t>
+          <t>219937</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>251364</t>
+          <t>252316</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>55,13%</t>
+          <t>55,19%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>63,07%</t>
+          <t>63,31%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>338744</t>
+          <t>340553</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>382642</t>
+          <t>382681</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>53,95%</t>
+          <t>54,24%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
@@ -1077,12 +1077,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41606</t>
+          <t>41515</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67562</t>
+          <t>68152</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,47%</t>
+          <t>29,72%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1112,12 +1112,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>55673</t>
+          <t>56722</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>79993</t>
+          <t>80095</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>13,97%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>20,07%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>103420</t>
+          <t>104606</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>140869</t>
+          <t>141059</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1162,12 +1162,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>22,47%</t>
         </is>
       </c>
     </row>
@@ -1190,12 +1190,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14292</t>
+          <t>14662</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>30502</t>
+          <t>30828</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1205,12 +1205,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1225,12 +1225,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>13655</t>
+          <t>13754</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>33671</t>
+          <t>31622</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1260,12 +1260,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>31869</t>
+          <t>31667</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>57252</t>
+          <t>57198</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1275,12 +1275,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>9,11%</t>
         </is>
       </c>
     </row>
@@ -1420,12 +1420,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3398</t>
+          <t>3655</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16348</t>
+          <t>16277</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1435,12 +1435,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4349</t>
+          <t>4116</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18331</t>
+          <t>17566</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1470,12 +1470,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1490,12 +1490,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>9974</t>
+          <t>10319</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>29068</t>
+          <t>29947</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1505,12 +1505,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,07%</t>
         </is>
       </c>
     </row>
@@ -1533,12 +1533,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34409</t>
+          <t>33257</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>87841</t>
+          <t>85228</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1548,12 +1548,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1568,12 +1568,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>80721</t>
+          <t>79327</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>380247</t>
+          <t>405676</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1583,12 +1583,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>29,26%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1603,12 +1603,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>137108</t>
+          <t>139973</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>465420</t>
+          <t>451267</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1618,12 +1618,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>16,14%</t>
         </is>
       </c>
     </row>
@@ -1646,12 +1646,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>581016</t>
+          <t>589557</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1039295</t>
+          <t>1033578</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>41,22%</t>
+          <t>41,83%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>73,74%</t>
+          <t>73,33%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>554282</t>
+          <t>553219</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>950697</t>
+          <t>967832</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1696,12 +1696,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>39,98%</t>
+          <t>39,9%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>68,57%</t>
+          <t>69,8%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1716,12 +1716,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>1176557</t>
+          <t>1190371</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>1809956</t>
+          <t>1823020</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1731,12 +1731,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>42,08%</t>
+          <t>42,58%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>64,74%</t>
+          <t>65,2%</t>
         </is>
       </c>
     </row>
@@ -1759,12 +1759,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>219653</t>
+          <t>219464</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>488233</t>
+          <t>484082</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1774,12 +1774,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,64%</t>
+          <t>34,35%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1794,12 +1794,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>234566</t>
+          <t>219084</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>470775</t>
+          <t>467713</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>15,8%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>33,95%</t>
+          <t>33,73%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1829,12 +1829,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>559311</t>
+          <t>549472</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>921638</t>
+          <t>910229</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1844,12 +1844,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>32,96%</t>
+          <t>32,56%</t>
         </is>
       </c>
     </row>
@@ -1872,12 +1872,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>106769</t>
+          <t>121405</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>267865</t>
+          <t>268279</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1887,12 +1887,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1907,12 +1907,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>95665</t>
+          <t>80462</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>183190</t>
+          <t>178298</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1922,12 +1922,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,12 +1942,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>249969</t>
+          <t>256499</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>431159</t>
+          <t>427331</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1957,12 +1957,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>15,28%</t>
         </is>
       </c>
     </row>
@@ -2102,12 +2102,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1078</t>
+          <t>1179</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12027</t>
+          <t>12323</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2137,12 +2137,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2128</t>
+          <t>2086</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>12903</t>
+          <t>12161</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2152,47 +2152,47 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
+          <t>0,47%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,74%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>9801</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>18970</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>1,09%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
           <t>0,48%</t>
         </is>
       </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>2,91%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>9801</t>
-        </is>
-      </c>
-      <c r="S16" s="2" t="inlineStr">
-        <is>
-          <t>4502</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="inlineStr">
-        <is>
-          <t>19397</t>
-        </is>
-      </c>
-      <c r="U16" s="2" t="inlineStr">
-        <is>
-          <t>1,09%</t>
-        </is>
-      </c>
-      <c r="V16" s="2" t="inlineStr">
-        <is>
-          <t>0,5%</t>
-        </is>
-      </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,1%</t>
         </is>
       </c>
     </row>
@@ -2215,12 +2215,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19793</t>
+          <t>19302</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>42619</t>
+          <t>42547</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2230,12 +2230,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2250,12 +2250,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17211</t>
+          <t>17385</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>36207</t>
+          <t>35901</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2265,12 +2265,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>41769</t>
+          <t>41532</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>69722</t>
+          <t>70811</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2300,12 +2300,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>7,84%</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>167750</t>
+          <t>170012</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>213410</t>
+          <t>214720</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>36,48%</t>
+          <t>36,98%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>46,41%</t>
+          <t>46,7%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2363,12 +2363,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>163788</t>
+          <t>164624</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>201469</t>
+          <t>201343</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2378,12 +2378,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>36,94%</t>
+          <t>37,13%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>45,44%</t>
+          <t>45,41%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2398,12 +2398,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>348588</t>
+          <t>346516</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>406414</t>
+          <t>404717</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2413,12 +2413,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>38,6%</t>
+          <t>38,37%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>45,0%</t>
+          <t>44,81%</t>
         </is>
       </c>
     </row>
@@ -2441,12 +2441,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>136836</t>
+          <t>137899</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>178883</t>
+          <t>182330</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2456,12 +2456,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>29,99%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>38,9%</t>
+          <t>39,65%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2476,12 +2476,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>147054</t>
+          <t>144544</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>182212</t>
+          <t>181009</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2491,12 +2491,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>33,17%</t>
+          <t>32,6%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>41,1%</t>
+          <t>40,83%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2511,12 +2511,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>290761</t>
+          <t>293804</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>348570</t>
+          <t>350597</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2526,12 +2526,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>32,19%</t>
+          <t>32,53%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>38,59%</t>
+          <t>38,82%</t>
         </is>
       </c>
     </row>
@@ -2554,12 +2554,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>61511</t>
+          <t>59953</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>102040</t>
+          <t>99763</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2569,82 +2569,82 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
+          <t>13,04%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>21,7%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>64939</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>51982</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>80316</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>14,65%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>11,72%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>18,11%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>142225</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>120837</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>166766</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>15,75%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
           <t>13,38%</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>22,19%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>64939</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>51569</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>79244</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>14,65%</t>
-        </is>
-      </c>
-      <c r="O20" s="2" t="inlineStr">
-        <is>
-          <t>11,63%</t>
-        </is>
-      </c>
-      <c r="P20" s="2" t="inlineStr">
-        <is>
-          <t>17,87%</t>
-        </is>
-      </c>
-      <c r="Q20" s="2" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>142225</t>
-        </is>
-      </c>
-      <c r="S20" s="2" t="inlineStr">
-        <is>
-          <t>121679</t>
-        </is>
-      </c>
-      <c r="T20" s="2" t="inlineStr">
-        <is>
-          <t>168311</t>
-        </is>
-      </c>
-      <c r="U20" s="2" t="inlineStr">
-        <is>
-          <t>15,75%</t>
-        </is>
-      </c>
-      <c r="V20" s="2" t="inlineStr">
-        <is>
-          <t>13,47%</t>
-        </is>
-      </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>18,46%</t>
         </is>
       </c>
     </row>
@@ -2784,12 +2784,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>10284</t>
+          <t>11397</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>30123</t>
+          <t>30655</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2799,12 +2799,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>16824</t>
+          <t>16461</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>37529</t>
+          <t>37219</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2834,12 +2834,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2854,12 +2854,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>33164</t>
+          <t>33134</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>62195</t>
+          <t>61631</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,42%</t>
         </is>
       </c>
     </row>
@@ -2897,12 +2897,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>74992</t>
+          <t>72523</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>142358</t>
+          <t>141588</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2912,12 +2912,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2932,12 +2932,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>168136</t>
+          <t>165673</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>480250</t>
+          <t>465612</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2947,12 +2947,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2967,12 +2967,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>275311</t>
+          <t>279594</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>592776</t>
+          <t>596998</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -2982,12 +2982,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>13,8%</t>
         </is>
       </c>
     </row>
@@ -3010,12 +3010,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>902143</t>
+          <t>904716</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1400532</t>
+          <t>1404678</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>42,99%</t>
+          <t>43,11%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>66,74%</t>
+          <t>66,94%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>981931</t>
+          <t>982405</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>1438812</t>
+          <t>1405662</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3060,12 +3060,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>44,06%</t>
+          <t>44,09%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>64,57%</t>
+          <t>63,08%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3080,12 +3080,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1931720</t>
+          <t>1941466</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>2625283</t>
+          <t>2580417</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3095,12 +3095,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>44,64%</t>
+          <t>44,87%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>60,67%</t>
+          <t>59,64%</t>
         </is>
       </c>
     </row>
@@ -3123,12 +3123,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>378582</t>
+          <t>400615</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>696602</t>
+          <t>697601</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -3138,12 +3138,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>19,09%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>33,24%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3158,12 +3158,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>447088</t>
+          <t>457455</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>696080</t>
+          <t>694271</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3173,12 +3173,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>31,24%</t>
+          <t>31,16%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>942167</t>
+          <t>946587</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>1362059</t>
+          <t>1344531</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>21,88%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>31,48%</t>
+          <t>31,07%</t>
         </is>
       </c>
     </row>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>211729</t>
+          <t>212654</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>363965</t>
+          <t>368190</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3251,12 +3251,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3271,12 +3271,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>167442</t>
+          <t>166747</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>266091</t>
+          <t>265984</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
@@ -3306,12 +3306,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>408742</t>
+          <t>422042</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>610161</t>
+          <t>604759</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3321,12 +3321,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>13,98%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/SALUD_MEN_PER-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_MEN_PER-Estudios-trans_orig.xlsx
@@ -733,32 +733,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6850</t>
+          <t>6972</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3189</t>
+          <t>3229</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12809</t>
+          <t>13352</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -768,67 +768,67 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10974</t>
+          <t>12014</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6599</t>
+          <t>7220</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>17043</t>
+          <t>18691</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>2,76%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>18986</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>12594</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>28136</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
           <t>2,75%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>1,66%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>4,28%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>17825</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>11926</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>26384</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>2,84%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,07%</t>
         </is>
       </c>
     </row>
@@ -846,32 +846,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21743</t>
+          <t>23699</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14409</t>
+          <t>16192</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>30590</t>
+          <t>33090</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -881,32 +881,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>63710</t>
+          <t>70977</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>53528</t>
+          <t>60505</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>75721</t>
+          <t>85054</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -916,27 +916,27 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>85453</t>
+          <t>94676</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>71741</t>
+          <t>79349</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>100058</t>
+          <t>110134</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>13,7%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
@@ -959,32 +959,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>125587</t>
+          <t>138155</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>110770</t>
+          <t>122586</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>139283</t>
+          <t>152284</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>54,77%</t>
+          <t>53,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,31%</t>
+          <t>47,81%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>60,74%</t>
+          <t>59,4%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -994,32 +994,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>235617</t>
+          <t>253858</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>219937</t>
+          <t>237145</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>252316</t>
+          <t>271552</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>59,12%</t>
+          <t>58,42%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>55,19%</t>
+          <t>54,58%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>63,31%</t>
+          <t>62,49%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1029,32 +1029,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>361204</t>
+          <t>392014</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>340553</t>
+          <t>370438</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>382681</t>
+          <t>414779</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>57,53%</t>
+          <t>56,74%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>54,24%</t>
+          <t>53,62%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>60,95%</t>
+          <t>60,03%</t>
         </is>
       </c>
     </row>
@@ -1072,32 +1072,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53705</t>
+          <t>59619</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41515</t>
+          <t>47684</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>68152</t>
+          <t>74658</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>23,25%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>67646</t>
+          <t>76024</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>56722</t>
+          <t>63579</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>80095</t>
+          <t>89647</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1142,32 +1142,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>121351</t>
+          <t>135643</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>104606</t>
+          <t>119117</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>141059</t>
+          <t>156258</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>22,62%</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21409</t>
+          <t>27935</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14662</t>
+          <t>19236</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>30828</t>
+          <t>40450</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1220,32 +1220,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20588</t>
+          <t>21646</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>13754</t>
+          <t>14822</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>31622</t>
+          <t>33034</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1255,32 +1255,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>41997</t>
+          <t>49581</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>31667</t>
+          <t>37686</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>57198</t>
+          <t>66300</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>9,6%</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1298,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>229294</t>
+          <t>256380</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>229294</t>
+          <t>256380</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>229294</t>
+          <t>256380</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1333,17 +1333,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>398536</t>
+          <t>434519</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>398536</t>
+          <t>434519</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>398536</t>
+          <t>434519</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>627830</t>
+          <t>690899</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>627830</t>
+          <t>690899</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>627830</t>
+          <t>690899</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1415,32 +1415,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8606</t>
+          <t>9426</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3655</t>
+          <t>4404</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16277</t>
+          <t>17315</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1450,32 +1450,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9212</t>
+          <t>9877</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4116</t>
+          <t>5312</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17566</t>
+          <t>18314</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1485,32 +1485,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>17818</t>
+          <t>19303</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10319</t>
+          <t>11840</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>29947</t>
+          <t>31425</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,23%</t>
         </is>
       </c>
     </row>
@@ -1528,32 +1528,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63127</t>
+          <t>66328</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33257</t>
+          <t>50681</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>85228</t>
+          <t>86138</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1563,32 +1563,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>158447</t>
+          <t>96941</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>79327</t>
+          <t>81264</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>405676</t>
+          <t>116485</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>29,26%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1598,32 +1598,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>221574</t>
+          <t>163269</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>139973</t>
+          <t>138800</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>451267</t>
+          <t>188628</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>7,37%</t>
         </is>
       </c>
     </row>
@@ -1641,32 +1641,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>741121</t>
+          <t>556573</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>589557</t>
+          <t>514171</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1033578</t>
+          <t>598989</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>52,58%</t>
+          <t>43,22%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>41,83%</t>
+          <t>39,93%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>73,33%</t>
+          <t>46,52%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1676,32 +1676,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>701243</t>
+          <t>564526</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>553219</t>
+          <t>532161</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>967832</t>
+          <t>596606</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>50,58%</t>
+          <t>44,4%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>39,9%</t>
+          <t>41,86%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>69,8%</t>
+          <t>46,92%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1711,32 +1711,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>1442364</t>
+          <t>1121100</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>1190371</t>
+          <t>1070045</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>1823020</t>
+          <t>1174072</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>51,59%</t>
+          <t>43,81%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>42,58%</t>
+          <t>41,81%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>65,2%</t>
+          <t>45,88%</t>
         </is>
       </c>
     </row>
@@ -1754,32 +1754,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>390035</t>
+          <t>437639</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>219464</t>
+          <t>398594</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>484082</t>
+          <t>477948</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>33,99%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>30,95%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,35%</t>
+          <t>37,12%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1789,32 +1789,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>378148</t>
+          <t>433456</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>219084</t>
+          <t>402049</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>467713</t>
+          <t>465789</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>27,27%</t>
+          <t>34,09%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>31,62%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>33,73%</t>
+          <t>36,64%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1824,32 +1824,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>768183</t>
+          <t>871096</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>549472</t>
+          <t>820322</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>910229</t>
+          <t>917966</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>27,48%</t>
+          <t>34,04%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>32,05%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>35,87%</t>
         </is>
       </c>
     </row>
@@ -1867,32 +1867,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>206505</t>
+          <t>217720</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>121405</t>
+          <t>184555</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>268279</t>
+          <t>254806</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1902,32 +1902,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>139439</t>
+          <t>166624</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>80462</t>
+          <t>143662</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>178298</t>
+          <t>195023</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1937,32 +1937,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>345944</t>
+          <t>384344</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>256499</t>
+          <t>344783</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>427331</t>
+          <t>432918</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>15,02%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>16,92%</t>
         </is>
       </c>
     </row>
@@ -1980,17 +1980,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2015,17 +2015,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1386489</t>
+          <t>1271425</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1386489</t>
+          <t>1271425</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1386489</t>
+          <t>1271425</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2050,17 +2050,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>2795883</t>
+          <t>2559112</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>2795883</t>
+          <t>2559112</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>2795883</t>
+          <t>2559112</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2097,32 +2097,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4247</t>
+          <t>5158</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1179</t>
+          <t>1645</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12323</t>
+          <t>14443</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2132,32 +2132,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5554</t>
+          <t>6283</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>12161</t>
+          <t>14063</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2167,32 +2167,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>9801</t>
+          <t>11441</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>4316</t>
+          <t>5438</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>18970</t>
+          <t>22218</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,21%</t>
         </is>
       </c>
     </row>
@@ -2210,32 +2210,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>28740</t>
+          <t>32542</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19302</t>
+          <t>22078</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>42547</t>
+          <t>46932</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2245,32 +2245,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25319</t>
+          <t>28459</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17385</t>
+          <t>20136</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>35901</t>
+          <t>39443</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2280,32 +2280,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>54059</t>
+          <t>61000</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>41532</t>
+          <t>46613</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>70811</t>
+          <t>78631</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>7,82%</t>
         </is>
       </c>
     </row>
@@ -2323,32 +2323,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>191388</t>
+          <t>208082</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>170012</t>
+          <t>183253</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>214720</t>
+          <t>231936</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>41,62%</t>
+          <t>40,81%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>36,98%</t>
+          <t>35,94%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>46,7%</t>
+          <t>45,49%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2358,32 +2358,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>183946</t>
+          <t>210030</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>164624</t>
+          <t>189611</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>201343</t>
+          <t>230000</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>41,49%</t>
+          <t>42,35%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>37,13%</t>
+          <t>38,24%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>45,41%</t>
+          <t>46,38%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2393,32 +2393,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>375333</t>
+          <t>418112</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>346516</t>
+          <t>387217</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>404717</t>
+          <t>448190</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>41,56%</t>
+          <t>41,57%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>38,37%</t>
+          <t>38,5%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>44,81%</t>
+          <t>44,56%</t>
         </is>
       </c>
     </row>
@@ -2436,32 +2436,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>158141</t>
+          <t>176222</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>137899</t>
+          <t>155498</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>182330</t>
+          <t>201406</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,39%</t>
+          <t>34,56%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>29,99%</t>
+          <t>30,5%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>39,65%</t>
+          <t>39,5%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2471,32 +2471,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>163617</t>
+          <t>177671</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>144544</t>
+          <t>158661</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>181009</t>
+          <t>198508</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>36,9%</t>
+          <t>35,83%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>32,6%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>40,83%</t>
+          <t>40,03%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2506,32 +2506,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>321758</t>
+          <t>353893</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>293804</t>
+          <t>322701</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>350597</t>
+          <t>382875</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>35,63%</t>
+          <t>35,19%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>32,08%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>38,82%</t>
+          <t>38,07%</t>
         </is>
       </c>
     </row>
@@ -2549,32 +2549,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>77286</t>
+          <t>87876</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>59953</t>
+          <t>69761</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>99763</t>
+          <t>113543</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>21,7%</t>
+          <t>22,27%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2584,32 +2584,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>64939</t>
+          <t>73463</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>51982</t>
+          <t>59662</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>80316</t>
+          <t>88853</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2619,32 +2619,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>142225</t>
+          <t>161340</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>120837</t>
+          <t>136505</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>166766</t>
+          <t>188071</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>18,7%</t>
         </is>
       </c>
     </row>
@@ -2662,17 +2662,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2697,17 +2697,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2732,17 +2732,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2779,32 +2779,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>19703</t>
+          <t>21555</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>11397</t>
+          <t>13419</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>30655</t>
+          <t>33173</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2814,32 +2814,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>25740</t>
+          <t>28175</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>16461</t>
+          <t>19888</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>37219</t>
+          <t>39913</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2849,32 +2849,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>45443</t>
+          <t>49730</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>33134</t>
+          <t>37979</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>61631</t>
+          <t>66764</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,57%</t>
         </is>
       </c>
     </row>
@@ -2892,32 +2892,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>113610</t>
+          <t>122569</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>72523</t>
+          <t>99149</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>141588</t>
+          <t>147423</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2927,32 +2927,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>247476</t>
+          <t>196377</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>165673</t>
+          <t>174920</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>465612</t>
+          <t>220587</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2962,32 +2962,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>361086</t>
+          <t>318946</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>279594</t>
+          <t>286255</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>596998</t>
+          <t>351104</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>8,25%</t>
         </is>
       </c>
     </row>
@@ -3005,32 +3005,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1058095</t>
+          <t>902811</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>904716</t>
+          <t>852313</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1404678</t>
+          <t>951897</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>50,42%</t>
+          <t>43,95%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>43,11%</t>
+          <t>41,5%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>66,94%</t>
+          <t>46,34%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3040,32 +3040,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1120806</t>
+          <t>1028415</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>982405</t>
+          <t>984893</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>1405662</t>
+          <t>1072884</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>50,3%</t>
+          <t>46,71%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>44,09%</t>
+          <t>44,73%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>63,08%</t>
+          <t>48,73%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3075,32 +3075,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>2178900</t>
+          <t>1931225</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1941466</t>
+          <t>1869124</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>2580417</t>
+          <t>1996191</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>50,36%</t>
+          <t>45,38%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>44,87%</t>
+          <t>43,92%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>59,64%</t>
+          <t>46,91%</t>
         </is>
       </c>
     </row>
@@ -3118,32 +3118,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>601881</t>
+          <t>673480</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>400615</t>
+          <t>629355</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>697601</t>
+          <t>722065</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>32,79%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>30,64%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>33,24%</t>
+          <t>35,16%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3153,32 +3153,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>609411</t>
+          <t>687151</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>457455</t>
+          <t>648327</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>694271</t>
+          <t>729512</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>31,21%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>29,44%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>31,16%</t>
+          <t>33,13%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3188,32 +3188,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>1211291</t>
+          <t>1360631</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>946587</t>
+          <t>1295942</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>1344531</t>
+          <t>1423680</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>27,99%</t>
+          <t>31,97%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>30,45%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>31,07%</t>
+          <t>33,45%</t>
         </is>
       </c>
     </row>
@@ -3231,32 +3231,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>305200</t>
+          <t>333531</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>212654</t>
+          <t>293616</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>368190</t>
+          <t>379187</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3266,32 +3266,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>224966</t>
+          <t>261734</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>166747</t>
+          <t>230336</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>265984</t>
+          <t>293876</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3301,32 +3301,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>530166</t>
+          <t>595265</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>422042</t>
+          <t>540609</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>604759</t>
+          <t>648411</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>15,24%</t>
         </is>
       </c>
     </row>
@@ -3344,17 +3344,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2098488</t>
+          <t>2053946</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2098488</t>
+          <t>2053946</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2098488</t>
+          <t>2053946</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3379,17 +3379,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2228400</t>
+          <t>2201851</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2228400</t>
+          <t>2201851</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2228400</t>
+          <t>2201851</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3414,17 +3414,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4326887</t>
+          <t>4255797</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4326887</t>
+          <t>4255797</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4326887</t>
+          <t>4255797</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
